--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7907C3BE-813D-4050-B40A-2F930C309594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C828E2-8905-4F0C-93C5-69C12AD59D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,10 +525,10 @@
         <v>2000</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -553,10 +553,10 @@
         <v>2200</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -581,10 +581,10 @@
         <v>2400</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>50000</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -609,10 +609,10 @@
         <v>2600</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>60000</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -637,10 +637,10 @@
         <v>2800</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G6">
-        <v>70000</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -665,10 +665,10 @@
         <v>3000</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>100000</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -693,10 +693,10 @@
         <v>3200</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>200000</v>
+        <v>7</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -721,10 +721,10 @@
         <v>3400</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G9">
-        <v>350000</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -748,10 +748,10 @@
         <v>3600</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G10">
-        <v>400000</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C828E2-8905-4F0C-93C5-69C12AD59D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC82C6-4EE8-46F4-8C12-DE52170067C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,31 +68,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>깨진 토끼의 뿔</t>
-  </si>
-  <si>
-    <t>토끼의 뿔</t>
-  </si>
-  <si>
-    <t>깨진 소의 뿔</t>
-  </si>
-  <si>
-    <t>소의 뿔</t>
-  </si>
-  <si>
-    <t>깨진 호랑이의 뿔</t>
-  </si>
-  <si>
-    <t>호랑이의 뿔</t>
-  </si>
-  <si>
-    <t>깨진 쥐의 뿔</t>
-  </si>
-  <si>
-    <t>쥐의 뿔</t>
-  </si>
-  <si>
-    <t>도깨비의 뿔</t>
+    <t>적도깨비의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황도깨비의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청도깨비의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,11 +450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +500,6 @@
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C8" si="0">C3/2</f>
         <v>39062500000</v>
       </c>
       <c r="D2">
@@ -543,7 +527,7 @@
         <v>1.058981350891062E+39</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>C2*2</f>
         <v>78125000000</v>
       </c>
       <c r="D3">
@@ -571,7 +555,7 @@
         <v>2.4818136387691388E+40</v>
       </c>
       <c r="C4">
-        <f>C5/2</f>
+        <f t="shared" ref="C4" si="0">C3*2</f>
         <v>156250000000</v>
       </c>
       <c r="D4">
@@ -588,173 +572,6 @@
       </c>
       <c r="H4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>2.94280242098269E+37*32000</f>
-        <v>9.4169677471446082E+41</v>
-      </c>
-      <c r="C5">
-        <f>C6/2</f>
-        <v>312500000000</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>2600</v>
-      </c>
-      <c r="F5">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f>2.50626218539073E+40*35000</f>
-        <v>8.7719176488675562E+44</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>625000000000</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>2800</v>
-      </c>
-      <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f>8.19901683803051E+41*70000</f>
-        <v>5.7393117866213562E+46</v>
-      </c>
-      <c r="C7">
-        <f>C8/2</f>
-        <v>1250000000000</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f>2.84685850533467E+43*57000</f>
-        <v>1.622709348040762E+48</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>2500000000000</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>3200</v>
-      </c>
-      <c r="F8">
-        <v>39</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f>1.06172630910126E+45*90000</f>
-        <v>9.5555367819113391E+49</v>
-      </c>
-      <c r="C9">
-        <f>C10/2</f>
-        <v>5000000000000</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>3400</v>
-      </c>
-      <c r="F9">
-        <v>39</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f>3.94084877490225E+46*52000</f>
-        <v>2.0492413629491702E+51</v>
-      </c>
-      <c r="C10">
-        <v>10000000000000</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>3600</v>
-      </c>
-      <c r="F10">
-        <v>39</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC82C6-4EE8-46F4-8C12-DE52170067C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A09CE-9DBB-4E3A-B895-F9E13ACEF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -68,15 +68,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적도깨비의 뿔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황도깨비의 뿔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>청도깨비의 뿔</t>
+    <t>혈랑의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량의 뿔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:D8"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A09CE-9DBB-4E3A-B895-F9E13ACEF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369F7DA-B531-4B41-9D48-E41BACF5EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5895" yWindow="990" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C2">
-        <v>39062500000</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -512,7 +512,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -527,8 +527,7 @@
         <v>1.058981350891062E+39</v>
       </c>
       <c r="C3">
-        <f>C2*2</f>
-        <v>78125000000</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -540,7 +539,7 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -555,8 +554,7 @@
         <v>2.4818136387691388E+40</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4" si="0">C3*2</f>
-        <v>156250000000</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -568,7 +566,7 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2369F7DA-B531-4B41-9D48-E41BACF5EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B44F4-3268-4AE1-A440-712FF6576B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="990" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6015" yWindow="1515" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -566,7 +566,7 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085B44F4-3268-4AE1-A440-712FF6576B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC0860-1A96-4C15-9DEF-56DE9C6E11B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1515" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +512,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -539,7 +539,7 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -566,7 +566,7 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC0860-1A96-4C15-9DEF-56DE9C6E11B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDC587-8053-4862-8DA8-5577CCFE23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>암량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오량의 뿔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,11 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,6 +580,60 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>5.29490675445531E+34*20000</f>
+        <v>1.058981350891062E+39</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2600</v>
+      </c>
+      <c r="F5">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>8.86362013846121E+35*28000</f>
+        <v>2.4818136387691388E+40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2800</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFDC587-8053-4862-8DA8-5577CCFE23EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE005754-6DD4-4AEF-8690-A63B443B6BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -80,11 +80,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사량의 뿔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오량의 뿔</t>
+    <t>화량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량의 뿔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE005754-6DD4-4AEF-8690-A63B443B6BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C19092-F708-44B7-AA16-12E69777F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>설량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠량의 뿔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,11 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,7 +528,7 @@
         <v>39</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -547,7 +555,7 @@
         <v>39</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -574,7 +582,7 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
@@ -601,7 +609,7 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -628,10 +636,64 @@
         <v>39</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>5.29490675445531E+34*20000</f>
+        <v>1.058981350891062E+39</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>3.6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>8.86362013846121E+35*28000</f>
+        <v>2.4818136387691388E+40</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3200</v>
+      </c>
+      <c r="F8">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>4.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/DokebiHorn.xlsx
+++ b/Assets/06.Table/DokebiHorn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C19092-F708-44B7-AA16-12E69777F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546D5566-1F3C-49A0-A8B6-70B891C065B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DokebiHorn" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,11 +88,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>육량의 뿔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠량의 뿔</t>
+    <t>미량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량의 뿔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량의 뿔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,11 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,8 +578,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>8.86362013846121E+35*28000</f>
-        <v>2.4818136387691388E+40</v>
+        <f t="shared" ref="B4" si="0">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -593,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>5.29490675445531E+34*20000</f>
+        <f t="shared" ref="B5" si="1">5.29490675445531E+34*20000</f>
         <v>1.058981350891062E+39</v>
       </c>
       <c r="C5">
@@ -620,8 +632,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>8.86362013846121E+35*28000</f>
-        <v>2.4818136387691388E+40</v>
+        <f t="shared" ref="B6" si="2">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -647,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>5.29490675445531E+34*20000</f>
+        <f t="shared" ref="B7" si="3">5.29490675445531E+34*20000</f>
         <v>1.058981350891062E+39</v>
       </c>
       <c r="C7">
@@ -674,8 +686,8 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>8.86362013846121E+35*28000</f>
-        <v>2.4818136387691388E+40</v>
+        <f t="shared" ref="B8" si="4">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -694,6 +706,87 @@
       </c>
       <c r="H8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9" si="5">5.29490675445531E+34*20000</f>
+        <v>1.058981350891062E+39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3400</v>
+      </c>
+      <c r="F9">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10" si="6">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11" si="7">5.29490675445531E+34*20000</f>
+        <v>1.058981350891062E+39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3800</v>
+      </c>
+      <c r="F11">
+        <v>39</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
